--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1673.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1673.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.203492753298351</v>
+        <v>2.722348213195801</v>
       </c>
       <c r="B1">
-        <v>2.649424255966896</v>
+        <v>2.909647226333618</v>
       </c>
       <c r="C1">
-        <v>2.223705847803199</v>
+        <v>1.986009120941162</v>
       </c>
       <c r="D1">
-        <v>2.014761915190654</v>
+        <v>1.623988509178162</v>
       </c>
       <c r="E1">
-        <v>1.674339584181359</v>
+        <v>1.51916778087616</v>
       </c>
     </row>
   </sheetData>
